--- a/C4RM_Class11.xlsx
+++ b/C4RM_Class11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/Google Drive/C4RM/Classfiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidromoff/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7B46BE-4919-CC4A-B552-B14F44C9B49A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1215973C-7A7D-F846-B390-7068C6CE43BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" firstSheet="8" activeTab="21" xr2:uid="{C1F6CC11-1296-3549-A35C-9D74F73648F5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16260" xr2:uid="{C1F6CC11-1296-3549-A35C-9D74F73648F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Today" sheetId="29" r:id="rId1"/>
@@ -275,7 +275,7 @@
     <definedName name="YTM_rf">#REF!</definedName>
     <definedName name="σ">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="1000"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="192">
   <si>
     <t>Filter</t>
   </si>
@@ -581,9 +581,6 @@
   </si>
   <si>
     <t>mydict.items()</t>
-  </si>
-  <si>
-    <t>mydict.pop()</t>
   </si>
   <si>
     <t>mydict.clear()</t>
@@ -935,7 +932,7 @@
     <t>x.join(mylistchars)</t>
   </si>
   <si>
-    <t>https://classroom.github.com/a/v63wfoqW</t>
+    <t>FOUND ON CANVAS</t>
   </si>
 </sst>
 </file>
@@ -3235,6 +3232,8 @@
       <sheetName val="qDataTypes"/>
       <sheetName val="qConditioning"/>
       <sheetName val="BLANK"/>
+      <sheetName val="DataTypes_ASCII"/>
+      <sheetName val="NextTime"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -3272,6 +3271,8 @@
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7612,7 +7613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8BA7B8-F26D-3442-9338-39D695BA7AF8}">
   <dimension ref="B2:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7626,32 +7627,32 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
@@ -7661,32 +7662,32 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -7793,27 +7794,27 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -7837,17 +7838,17 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -7892,12 +7893,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
@@ -7960,12 +7961,12 @@
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -7993,17 +7994,17 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -8016,9 +8017,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B2:B11"/>
+  <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8029,12 +8032,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
@@ -8065,11 +8068,6 @@
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -8281,7 +8279,9 @@
   </sheetPr>
   <dimension ref="B2:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8292,15 +8292,15 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>135</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -8308,7 +8308,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -8316,7 +8316,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -8324,7 +8324,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -8332,7 +8332,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -8340,7 +8340,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -8348,36 +8348,35 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>192</v>
+      <c r="B12" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B14" r:id="rId1" xr:uid="{07C3E438-3248-D94C-A09F-44A5C9E19B0C}"/>
-    <hyperlink ref="B12" r:id="rId2" xr:uid="{882FA82C-5E0F-B74C-B84D-B75DF65E6324}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8430,7 +8429,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -8440,22 +8439,22 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -8465,17 +8464,17 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -8507,22 +8506,22 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F2" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="19">
         <v>2000000</v>
@@ -8544,7 +8543,7 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="20">
         <v>0.03</v>
@@ -8566,7 +8565,7 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="20">
         <v>0.04</v>
@@ -8588,7 +8587,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="1">
         <v>10</v>
@@ -8610,7 +8609,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -8860,24 +8859,24 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F2" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H2" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>144</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="19">
         <v>2000000</v>
@@ -8904,7 +8903,7 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="20">
         <v>0.03</v>
@@ -8931,7 +8930,7 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="20">
         <v>0.04</v>
@@ -8958,7 +8957,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="1">
         <v>10</v>
@@ -9027,7 +9026,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F9" s="1">
         <v>7</v>
@@ -9051,7 +9050,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F10" s="1">
         <v>8</v>
@@ -9143,10 +9142,10 @@
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="I15" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" s="18" t="s">
         <v>148</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
@@ -9166,10 +9165,10 @@
     </row>
     <row r="18" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I18" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" s="26" t="s">
         <v>150</v>
-      </c>
-      <c r="J18" s="26" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="19" spans="9:11" x14ac:dyDescent="0.3">
@@ -9184,10 +9183,10 @@
     </row>
     <row r="21" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I21" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="9:11" x14ac:dyDescent="0.3">
@@ -9216,7 +9215,7 @@
   </sheetPr>
   <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9234,24 +9233,24 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E2" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1">
         <v>2000000</v>
@@ -9297,7 +9296,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1">
         <v>0.04</v>
@@ -9323,7 +9322,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -9391,7 +9390,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H14" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I14" s="13">
         <f>(SUM(H3:H7)*C5+H7)*C3</f>
@@ -9429,24 +9428,24 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E2" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1">
         <v>2000000</v>
@@ -9472,7 +9471,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="1">
         <v>0.03</v>
@@ -9498,7 +9497,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1">
         <v>0.04</v>
@@ -9586,7 +9585,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H14" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I14" s="13">
         <f>(SUM(H3:H7)*C5+H7)*C3</f>
@@ -9645,7 +9644,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
@@ -9671,7 +9670,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
@@ -9684,7 +9683,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
@@ -9708,7 +9707,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.3">
@@ -9716,7 +9715,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
@@ -9732,7 +9731,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
@@ -9756,7 +9755,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
@@ -9784,57 +9783,57 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C6" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C14" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -9864,32 +9863,32 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -9919,62 +9918,62 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -10020,22 +10019,22 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/C4RM_Class11.xlsx
+++ b/C4RM_Class11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidromoff/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1215973C-7A7D-F846-B390-7068C6CE43BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C937C4-E97D-2848-B861-5CC60F3F8E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16260" xr2:uid="{C1F6CC11-1296-3549-A35C-9D74F73648F5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16260" firstSheet="10" activeTab="21" xr2:uid="{C1F6CC11-1296-3549-A35C-9D74F73648F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Today" sheetId="29" r:id="rId1"/>
@@ -1570,7 +1570,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>﻿def getBondPrice_E(face, couponRate, m, yc)</a:t>
+            <a:t>﻿def getBondPrice_E(face, couponRate, yc)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7613,7 +7613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8BA7B8-F26D-3442-9338-39D695BA7AF8}">
   <dimension ref="B2:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9215,7 +9215,7 @@
   </sheetPr>
   <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>

--- a/C4RM_Class11.xlsx
+++ b/C4RM_Class11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidromoff/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C937C4-E97D-2848-B861-5CC60F3F8E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E9AFAE-B121-EF4E-9F5A-7FB09CF0F4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16260" firstSheet="10" activeTab="21" xr2:uid="{C1F6CC11-1296-3549-A35C-9D74F73648F5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16260" xr2:uid="{C1F6CC11-1296-3549-A35C-9D74F73648F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Today" sheetId="29" r:id="rId1"/>
@@ -7613,7 +7613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8BA7B8-F26D-3442-9338-39D695BA7AF8}">
   <dimension ref="B2:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9215,7 +9215,7 @@
   </sheetPr>
   <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
